--- a/biology/Médecine/Adolphe_Konan_Saraka/Adolphe_Konan_Saraka.xlsx
+++ b/biology/Médecine/Adolphe_Konan_Saraka/Adolphe_Konan_Saraka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adolphe Konan Saraka, né le 12 février 1953 à Béoumi (60 km de Bouaké, en Côte d'Ivoire) est un pharmacien et homme politique ivoirien.
-Élu député dans la circonscription électorale d'ando-kékrénou,( Béoumi, Kondrobo, communes et sous-préfectures) lors des législatives du 11 décembre de 2011[1], il rêve de désenclaver Béoumi avec la reconstruction du pont qui permet l’accès de Béoumi à Vavoua et Séguéla. Mais aussi d'obtenir le bitumage de l'axe routier Tiébissou - Marabadiassa  passant par Sakassou - Béoumi-Bodokro
+Élu député dans la circonscription électorale d'ando-kékrénou,( Béoumi, Kondrobo, communes et sous-préfectures) lors des législatives du 11 décembre de 2011, il rêve de désenclaver Béoumi avec la reconstruction du pont qui permet l’accès de Béoumi à Vavoua et Séguéla. Mais aussi d'obtenir le bitumage de l'axe routier Tiébissou - Marabadiassa  passant par Sakassou - Béoumi-Bodokro
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Carrière pharmaceutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Saraka a débuté en 1960 ses études primaires à l'école publique régionale de Béoumi, puis à l'EPP Satigui Sangaré d'Adjamé de 1961 à 1965, et obtenu son CEPE à l'EPP Bako dans le département d'Odienné . Il entre au Lycée Houphouët-Boigny de Korhogo, où il obtient le brevet d’études du premier cycle en 1971. Dès 1972, il rejoint le lycée classique d’Abidjan où il obtient le baccalauréat série D.
 Il fait ses études supérieures à la faculté de pharmacie de l'université de Caen Basse-Normandie. Stagiaire puis remplaçant dans des pharmacies de Mantes-la-Jolie de 1983 à 1985 en France, il soutient sa thèse et obtient son diplôme d’État de docteur en pharmacie en février 1985.
@@ -524,39 +538,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adolphe_Konan_Saraka</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adolphe_Konan_Saraka</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Carrière politique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Premier adjoint au maire
-Député
-Député et Maire
-Député et Président du groupe parlementaire Dialogue</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
